--- a/Sum functions1.xlsx
+++ b/Sum functions1.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25721"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://justit831.sharepoint.com/sites/Data/Shared Documents/Curriculum/Bootcamps/Data/Week 2 Workshop Excel, Data visualisation/Day 1/1. Morning Session/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://justit831-my.sharepoint.com/personal/yusufs_justit_co_uk/Documents/Documents/GitHub/HR-Database-using-MySQL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="244" documentId="8_{77FB24A6-B2C9-4892-8444-08FECA5863ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98047DAA-3CCA-4BF5-9C72-38FEC0647AD9}"/>
+  <xr:revisionPtr revIDLastSave="245" documentId="8_{77FB24A6-B2C9-4892-8444-08FECA5863ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B89433F-F32D-4150-BF10-77286579034E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2B0C0362-7A66-4C4F-9C32-F02B0FC3F865}"/>
+    <workbookView xWindow="-22665" yWindow="3195" windowWidth="17280" windowHeight="8370" xr2:uid="{2B0C0362-7A66-4C4F-9C32-F02B0FC3F865}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -79,7 +78,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,12 +100,6 @@
       <color theme="1"/>
       <name val="Arial Black"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -135,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -146,73 +139,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment textRotation="45"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial Black"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -223,21 +154,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{41E189E3-F7AF-47A1-A43C-6880114D097D}" name="Table1" displayName="Table1" ref="A1:F5" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:F5" xr:uid="{41E189E3-F7AF-47A1-A43C-6880114D097D}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{3C7970E0-A98B-4542-A48B-F0567A574C6B}" name="Name " dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{E972B4D4-AF56-44AB-A040-C66D4AD0E645}" name="January" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{8E3A4D16-47BA-4807-A755-D918785796A0}" name="February" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{2C6C51B7-1C44-43D2-895D-21A8DA133B2D}" name="March" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{D0913012-2012-4852-9D4C-C22A549E6CA2}" name="April" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{1DD9786C-DD0E-46D0-A04E-C884AF086997}" name="May" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -536,154 +452,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B86B1A-47FA-4FCB-81C5-130C18410D5E}">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="15.75">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="35.25">
-      <c r="A2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1">
-        <v>5000</v>
-      </c>
-      <c r="C2" s="1">
-        <v>5050</v>
-      </c>
-      <c r="D2" s="1">
-        <v>5100</v>
-      </c>
-      <c r="E2" s="1">
-        <v>5150</v>
-      </c>
-      <c r="F2" s="1">
-        <v>5200</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="32.25">
-      <c r="A3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1">
-        <v>5500</v>
-      </c>
-      <c r="C3" s="1">
-        <v>5400</v>
-      </c>
-      <c r="D3" s="1">
-        <v>5300</v>
-      </c>
-      <c r="E3" s="1">
-        <v>5200</v>
-      </c>
-      <c r="F3" s="1">
-        <v>5100</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1">
-        <v>5425</v>
-      </c>
-      <c r="C4" s="1">
-        <v>5432</v>
-      </c>
-      <c r="D4" s="1">
-        <v>5439</v>
-      </c>
-      <c r="E4" s="1">
-        <v>5446</v>
-      </c>
-      <c r="F4" s="1">
-        <v>5453</v>
-      </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="B5" s="1">
-        <f>SUM(B2:B4)</f>
-        <v>15925</v>
-      </c>
-      <c r="C5" s="1">
-        <f>SUM(C2:C4)</f>
-        <v>15882</v>
-      </c>
-      <c r="D5" s="1">
-        <f>SUM(D2:D4)</f>
-        <v>15839</v>
-      </c>
-      <c r="E5" s="1">
-        <f>SUM(E2:E4)</f>
-        <v>15796</v>
-      </c>
-      <c r="F5" s="1">
-        <f>SUM(F2:F4)</f>
-        <v>15753</v>
-      </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="7" spans="1:7" ht="21.75" customHeight="1"/>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C937AD76-7A08-464E-987D-6651A137BEDA}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
+    <row r="1" spans="1:6" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -703,7 +487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -723,7 +507,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -741,7 +525,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -766,7 +550,7 @@
         <v>5203.0200500000001</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -774,7 +558,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -794,7 +578,7 @@
         <v>5100</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -812,7 +596,7 @@
         <v>-0.02</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -837,7 +621,7 @@
         <v>5073.0248799999999</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -845,7 +629,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -865,7 +649,7 @@
         <v>5453</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -877,7 +661,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -902,7 +686,7 @@
         <v>339.0625</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" s="1"/>
     </row>
   </sheetData>
@@ -911,21 +695,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D431785D0CB87A4C8168CC6C104FEA4A" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="839f941c3653a83fbcec52b0e3ec7704">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bbd51b45-74d7-428a-bf07-eb48fd8c7cac" xmlns:ns3="055155b3-cbc3-4cfc-8963-c46fa7962a3c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="918a4eb84fff57b91afaef1972206cf2" ns2:_="" ns3:_="">
     <xsd:import namespace="bbd51b45-74d7-428a-bf07-eb48fd8c7cac"/>
@@ -1108,14 +877,53 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BBDCB75-9996-4714-86CE-7C5D7EC473F1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26AD1603-F5E3-457D-B8CB-B64CFD95719C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="bbd51b45-74d7-428a-bf07-eb48fd8c7cac"/>
+    <ds:schemaRef ds:uri="055155b3-cbc3-4cfc-8963-c46fa7962a3c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4B79875-34DB-4D13-93E4-A2C9C9AFD4A7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4B79875-34DB-4D13-93E4-A2C9C9AFD4A7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26AD1603-F5E3-457D-B8CB-B64CFD95719C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BBDCB75-9996-4714-86CE-7C5D7EC473F1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>